--- a/docs/CareConnect-Organization-1.xlsx
+++ b/docs/CareConnect-Organization-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="379">
   <si>
     <t>Path</t>
   </si>
@@ -340,6 +340,20 @@
 </t>
   </si>
   <si>
+    <t>Main location</t>
+  </si>
+  <si>
+    <t>The main location of the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>organization-period</t>
   </si>
   <si>
@@ -350,14 +364,6 @@
     <t>The date range that this organization should be considered available.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Organization.extension.id</t>
   </si>
   <si>
@@ -576,7 +582,7 @@
     <t>https://fhir.nhs.uk/Id/ods-organization-code</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2418,10 +2424,10 @@
         <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2481,10 +2487,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2504,7 +2510,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -2526,13 +2532,13 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2592,10 +2598,10 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2612,7 +2618,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2635,13 +2641,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2692,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2710,7 +2716,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2721,11 +2727,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2747,13 +2753,13 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2794,7 +2800,7 @@
         <v>98</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>40</v>
@@ -2803,7 +2809,7 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2821,7 +2827,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2858,13 +2864,13 @@
         <v>63</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2872,7 +2878,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>40</v>
@@ -2914,7 +2920,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>50</v>
@@ -2943,7 +2949,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2966,13 +2972,13 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3023,7 +3029,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3052,11 +3058,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3078,13 +3084,13 @@
         <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3134,7 +3140,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3163,7 +3169,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3186,17 +3192,17 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3233,17 +3239,17 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3252,30 +3258,30 @@
         <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
@@ -3297,17 +3303,17 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3356,7 +3362,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3365,27 +3371,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3408,13 +3414,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3465,7 +3471,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3483,7 +3489,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3494,11 +3500,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3520,13 +3526,13 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3567,7 +3573,7 @@
         <v>98</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
@@ -3576,7 +3582,7 @@
         <v>99</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3594,7 +3600,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3605,7 +3611,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3631,16 +3637,16 @@
         <v>69</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3665,13 +3671,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3689,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3707,7 +3713,7 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3741,19 +3747,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3781,10 +3787,10 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3802,7 +3808,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3817,10 +3823,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3831,7 +3837,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3857,27 +3863,27 @@
         <v>63</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>40</v>
@@ -3913,7 +3919,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3928,13 +3934,13 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3965,16 +3971,16 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3988,7 +3994,7 @@
         <v>40</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>40</v>
@@ -4024,7 +4030,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4039,13 +4045,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4053,7 +4059,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4076,13 +4082,13 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4133,7 +4139,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4148,13 +4154,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4162,7 +4168,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4185,16 +4191,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4244,7 +4250,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4259,13 +4265,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4273,10 +4279,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4298,17 +4304,17 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4357,7 +4363,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4366,27 +4372,27 @@
         <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4409,13 +4415,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4466,7 +4472,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4484,7 +4490,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4495,11 +4501,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4521,13 +4527,13 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4568,7 +4574,7 @@
         <v>98</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -4577,7 +4583,7 @@
         <v>99</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4595,7 +4601,7 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4606,7 +4612,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4632,16 +4638,16 @@
         <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4666,13 +4672,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4690,7 +4696,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4708,7 +4714,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4719,7 +4725,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4742,19 +4748,19 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4782,10 +4788,10 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4803,7 +4809,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4818,10 +4824,10 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4832,7 +4838,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4858,27 +4864,27 @@
         <v>63</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -4914,7 +4920,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4929,13 +4935,13 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4943,7 +4949,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4966,16 +4972,16 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4989,7 +4995,7 @@
         <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>40</v>
@@ -5025,7 +5031,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5040,13 +5046,13 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5054,7 +5060,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5077,13 +5083,13 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5134,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5149,13 +5155,13 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5163,7 +5169,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5186,16 +5192,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5245,7 +5251,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5260,13 +5266,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5274,7 +5280,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5297,22 +5303,22 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
@@ -5358,7 +5364,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5373,21 +5379,21 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5410,19 +5416,19 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5447,13 +5453,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5471,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5486,21 +5492,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5523,19 +5529,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5584,7 +5590,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5593,19 +5599,19 @@
         <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5613,7 +5619,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5636,19 +5642,19 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5697,7 +5703,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5715,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5726,7 +5732,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5749,19 +5755,19 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5810,7 +5816,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5819,19 +5825,19 @@
         <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5839,7 +5845,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5862,19 +5868,19 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5923,7 +5929,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5932,19 +5938,19 @@
         <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5952,7 +5958,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5975,17 +5981,17 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6034,7 +6040,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6049,13 +6055,13 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6063,7 +6069,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6086,19 +6092,19 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6147,7 +6153,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6159,13 +6165,13 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6176,7 +6182,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6199,13 +6205,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6256,7 +6262,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6274,7 +6280,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6285,11 +6291,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6311,13 +6317,13 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6367,7 +6373,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6385,7 +6391,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6396,11 +6402,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6422,13 +6428,13 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6478,7 +6484,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6507,7 +6513,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6530,17 +6536,17 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6568,10 +6574,10 @@
         <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6589,7 +6595,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6607,7 +6613,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6618,7 +6624,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6641,17 +6647,17 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6700,7 +6706,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6715,10 +6721,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6729,7 +6735,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6752,13 +6758,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6809,7 +6815,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6827,7 +6833,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6838,11 +6844,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6864,13 +6870,13 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6911,7 +6917,7 @@
         <v>98</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
@@ -6920,7 +6926,7 @@
         <v>99</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6938,7 +6944,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6975,16 +6981,16 @@
         <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7009,13 +7015,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7033,7 +7039,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7048,13 +7054,13 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7062,7 +7068,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7085,19 +7091,19 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7146,7 +7152,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7161,10 +7167,10 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7175,11 +7181,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7198,16 +7204,16 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7257,7 +7263,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7272,13 +7278,13 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7286,11 +7292,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7309,16 +7315,16 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7368,7 +7374,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7383,13 +7389,13 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7397,7 +7403,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7420,13 +7426,13 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7477,7 +7483,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7492,13 +7498,13 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7506,7 +7512,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7529,13 +7535,13 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7586,7 +7592,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7601,10 +7607,10 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7615,7 +7621,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7638,17 +7644,17 @@
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7697,7 +7703,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7712,13 +7718,13 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7726,7 +7732,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7749,17 +7755,17 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7808,7 +7814,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7823,10 +7829,10 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7837,7 +7843,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7860,17 +7866,17 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7919,7 +7925,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7934,10 +7940,10 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7948,7 +7954,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7971,17 +7977,17 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8030,7 +8036,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8048,7 +8054,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
